--- a/Profile_Encounter.xlsx
+++ b/Profile_Encounter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\124613\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\124613\Desktop\Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Encounter" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -214,6 +214,93 @@
   </si>
   <si>
     <t>Encounter.partOf</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>PV1-4 / PV1-18</t>
+  </si>
+  <si>
+    <t>PV2-25</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>PV1-54, PV1-53</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>ROL-3 (or maybe PRT-4)</t>
+  </si>
+  <si>
+    <t>ROL-5, ROL-6 (or maybe PRT-5)</t>
+  </si>
+  <si>
+    <t>ROL-4</t>
+  </si>
+  <si>
+    <t>SCH-1 / SCH-2</t>
+  </si>
+  <si>
+    <t>PV1-44, PV1-45</t>
+  </si>
+  <si>
+    <t>Resources that would commonly referenced at Encounter.indication would be Condition and/or Procedure. These most closely align with DG1/PRB and PR1 respectively.</t>
+  </si>
+  <si>
+    <t>PV1-5</t>
+  </si>
+  <si>
+    <t>PV1-14</t>
+  </si>
+  <si>
+    <t>PV1-13</t>
+  </si>
+  <si>
+    <t>PV1-38</t>
+  </si>
+  <si>
+    <t>PV1-16</t>
+  </si>
+  <si>
+    <t>PV1-15 / OBR-30 / OBR-43</t>
+  </si>
+  <si>
+    <t>PV1-37</t>
+  </si>
+  <si>
+    <t>PV1-36</t>
+  </si>
+  <si>
+    <t>PV1-3 / PV1-6 / PV1-11 / PV1-42 / PV1-43</t>
+  </si>
+  <si>
+    <t>PV1-10 / PL.6 &amp; PL.1</t>
+  </si>
+  <si>
+    <t>HL7 v2 definition is "the treatment or type of surgery that the patient is scheduled to receive"; seems slightly out of alignment with the concept name 'hospital service'. Would not trust that implementations apply this semantic by default</t>
+  </si>
+  <si>
+    <t>EVN-4 / PV2-3</t>
+  </si>
+  <si>
+    <t>PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations</t>
+  </si>
+  <si>
+    <t>units in minutes</t>
+  </si>
+  <si>
+    <t>(PV1-45 less PV1-44) iff ((PV1-44 not empty) and (PV1-45 not empty))</t>
   </si>
 </sst>
 </file>
@@ -250,7 +337,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,12 +371,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,15 +424,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,10 +436,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,510 +729,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="B38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Profile_Encounter.xlsx
+++ b/Profile_Encounter.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -237,9 +237,6 @@
     <t>PV1-54, PV1-53</t>
   </si>
   <si>
-    <t>ROL</t>
-  </si>
-  <si>
     <t>ROL-3 (or maybe PRT-4)</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>PV1-44, PV1-45</t>
   </si>
   <si>
-    <t>Resources that would commonly referenced at Encounter.indication would be Condition and/or Procedure. These most closely align with DG1/PRB and PR1 respectively.</t>
-  </si>
-  <si>
     <t>PV1-5</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>PV1-10 / PL.6 &amp; PL.1</t>
   </si>
   <si>
-    <t>HL7 v2 definition is "the treatment or type of surgery that the patient is scheduled to receive"; seems slightly out of alignment with the concept name 'hospital service'. Would not trust that implementations apply this semantic by default</t>
-  </si>
-  <si>
     <t>EVN-4 / PV2-3</t>
   </si>
   <si>
@@ -301,6 +292,176 @@
   </si>
   <si>
     <t>(PV1-45 less PV1-44) iff ((PV1-44 not empty) and (PV1-45 not empty))</t>
+  </si>
+  <si>
+    <t>PV1.19</t>
+  </si>
+  <si>
+    <t>PV1.2</t>
+  </si>
+  <si>
+    <t>PV2.25</t>
+  </si>
+  <si>
+    <t>PID.3</t>
+  </si>
+  <si>
+    <t>PV1.VisitNumber</t>
+  </si>
+  <si>
+    <t>PV1.PatientClass</t>
+  </si>
+  <si>
+    <t>PV2.VisitPriorityCode</t>
+  </si>
+  <si>
+    <t>PID.PatientIdentifierList</t>
+  </si>
+  <si>
+    <t>ROL.RoleROL</t>
+  </si>
+  <si>
+    <t>PV1.4 || PV1.18</t>
+  </si>
+  <si>
+    <t>Reference(Patient | Group)</t>
+  </si>
+  <si>
+    <t>Reference(EpisodeOfCare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ReferralRequest) </t>
+  </si>
+  <si>
+    <t>Reference(Practitioner | RelatedPerson)</t>
+  </si>
+  <si>
+    <t>Reference(Appointment)</t>
+  </si>
+  <si>
+    <t>Reference(Condition | Procedure)
+Resources that would commonly referenced at Encounter.indication would be Condition and/or Procedure. These most closely align with DG1/PRB and PR1 respectively.</t>
+  </si>
+  <si>
+    <t>Reference(Account)</t>
+  </si>
+  <si>
+    <t>Reference(Location)</t>
+  </si>
+  <si>
+    <t>Reference(Organization)
+HL7 v2 definition is "the treatment or type of surgery that the patient is scheduled to receive"; seems slightly out of alignment with the concept name 'hospital service'. Would not trust that implementations apply this semantic by default</t>
+  </si>
+  <si>
+    <t>Reference(Encounter)</t>
+  </si>
+  <si>
+    <t>PV1.54, PV1.53</t>
+  </si>
+  <si>
+    <t>ROL.4</t>
+  </si>
+  <si>
+    <t>PV1.44, PV1.45</t>
+  </si>
+  <si>
+    <t>PV1.5</t>
+  </si>
+  <si>
+    <t>PV1.14</t>
+  </si>
+  <si>
+    <t>PV1.13</t>
+  </si>
+  <si>
+    <t>PV1.38</t>
+  </si>
+  <si>
+    <t>PV1.16</t>
+  </si>
+  <si>
+    <t>PV1.37</t>
+  </si>
+  <si>
+    <t>PV1.36</t>
+  </si>
+  <si>
+    <t>(PV1.45 - PV1.44) iff ((PV1.44 not empty) &amp;&amp; (PV1.45 not empty))</t>
+  </si>
+  <si>
+    <t>SCH.1 || SCH.2</t>
+  </si>
+  <si>
+    <t>EVN.4 || PV2.3</t>
+  </si>
+  <si>
+    <t>PV1.15 || OBR.30 || OBR.43</t>
+  </si>
+  <si>
+    <t>PV1.3 || PV1.6 || PV1.11 || PV1.42 || PV1.43</t>
+  </si>
+  <si>
+    <t>PV1.10 || PL.6 &amp; PL.1</t>
+  </si>
+  <si>
+    <t>ROL.3</t>
+  </si>
+  <si>
+    <t>ROL.5, ROL.6</t>
+  </si>
+  <si>
+    <t>PV1.ServiceEpisodeIdentifier, PV1.ServiceEpisodeDescription</t>
+  </si>
+  <si>
+    <t>PV1.AdmissionType || PV1.PatientType</t>
+  </si>
+  <si>
+    <t>ROL.RoleBeginDateTime, ROL.RoleEndDateTime</t>
+  </si>
+  <si>
+    <t>ROL.RolePerson</t>
+  </si>
+  <si>
+    <t>PV1.AdmitDateTime, PV1.DischargeDateTime</t>
+  </si>
+  <si>
+    <t>(PV1.DischargeDateTime - PV1.AdmitDateTime) iff ((PV1.AdmitDateTime not empty) &amp;&amp; (PV1.DischargeDateTime not empty))</t>
+  </si>
+  <si>
+    <t>PV1.PreadmitNumber</t>
+  </si>
+  <si>
+    <t>PV1.AdmitSource</t>
+  </si>
+  <si>
+    <t>PV1.ReadmissionIndicator</t>
+  </si>
+  <si>
+    <t>PV1.DietType</t>
+  </si>
+  <si>
+    <t>PV1.VIPIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV1.DischargeDisposition </t>
+  </si>
+  <si>
+    <t>PV1.DischargedtoLocation</t>
+  </si>
+  <si>
+    <t>PV1.AssignedPatientLocation || PV1.PriorPatientLocation || PV1.TemporaryLocation || PV1.PendingLocation  || PV1.PriorTemporaryLocation</t>
+  </si>
+  <si>
+    <t>SCH.PlacerAppointmentID || SCH.FillerAppointmentID</t>
+  </si>
+  <si>
+    <t>EVN.EventReasonCode || PV2.AdmitReason</t>
+  </si>
+  <si>
+    <t>PV1.AmbulatoryStatus || OBR.TransportationMode || OBR.PlannedPatientTransportComme</t>
+  </si>
+  <si>
+    <t>PV1.HospitalService || PL.PersonLocationType &amp; PL.PointOfCare</t>
   </si>
 </sst>
 </file>
@@ -422,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -439,6 +600,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,7 +613,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,31 +895,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
@@ -787,8 +951,12 @@
       <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
@@ -841,8 +1009,12 @@
       <c r="B8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -883,8 +1055,12 @@
       <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
@@ -895,8 +1071,12 @@
       <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
@@ -907,10 +1087,16 @@
       <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -919,10 +1105,16 @@
       <c r="B15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -932,15 +1124,15 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -951,10 +1143,14 @@
         <v>24</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
@@ -963,10 +1159,14 @@
         <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
@@ -975,34 +1175,50 @@
         <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
@@ -1011,13 +1227,17 @@
         <v>29</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,13 +1245,17 @@
         <v>30</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,7 +1268,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
@@ -1052,8 +1276,8 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>65</v>
+      <c r="F26" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,7 +1308,9 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -1101,10 +1327,14 @@
         <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
@@ -1116,17 +1346,23 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
@@ -1135,10 +1371,14 @@
         <v>40</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
@@ -1147,10 +1387,14 @@
         <v>41</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
@@ -1159,10 +1403,14 @@
         <v>42</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
@@ -1171,10 +1419,14 @@
         <v>43</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
@@ -1183,22 +1435,32 @@
         <v>44</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
@@ -1217,12 +1479,18 @@
         <v>47</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -1244,18 +1512,22 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
-        <v>76</v>
+      <c r="F44" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1538,9 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
@@ -1293,10 +1567,10 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
+      <c r="B50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
